--- a/dsa_practice.xlsx
+++ b/dsa_practice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/Library/CloudStorage/OneDrive-Personal/Documents/SCHOOL/CODING/DSA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d34f119de7acea51/Documents/SCHOOL/CODING/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABAA61E-C06E-6646-8A8A-5B2B78B110D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{7ABAA61E-C06E-6646-8A8A-5B2B78B110D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DC5F573-6846-5B49-B7F3-7AC1FDD930BC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="27600" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>easy</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>assume current index is the smallest. Search for smallest element in remaining array. Update and swap</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>keep track of swapped boolean value, keep swapping adjacent values until cant swap no more</t>
+  </si>
+  <si>
+    <t>Start from the second element, compare and shift larger elements, then insert the current element.</t>
   </si>
 </sst>
 </file>
@@ -204,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -245,9 +257,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -622,7 +631,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L14" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G10:L10">
     <sortCondition ref="K9:K10"/>
   </sortState>
@@ -958,7 +967,7 @@
   <dimension ref="A9:L105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>1</v>
@@ -1016,24 +1025,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="J12" s="16"/>
+    <row r="11" spans="7:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="7:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="7:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="16" spans="7:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G16" s="4"/>
